--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -384,7 +384,7 @@
     <col min="2" max="2" customWidth="1" width="74"/>
     <col min="3" max="3" customWidth="1" width="21"/>
     <col min="4" max="4" customWidth="1" width="17"/>
-    <col min="5" max="5" customWidth="1" width="17"/>
+    <col min="5" max="5" customWidth="1" width="11"/>
     <col min="6" max="6" customWidth="1" width="16"/>
     <col min="7" max="7" customWidth="1" width="18"/>
   </cols>
@@ -429,10 +429,10 @@
         <v>#1</v>
       </c>
       <c r="F2" t="str">
-        <v>98 Slots</v>
+        <v>99 Slots</v>
       </c>
       <c r="G2" t="str">
-        <v>Tue, 31 May</v>
+        <v>Wed, 01 Jun</v>
       </c>
     </row>
     <row r="3">
@@ -452,10 +452,10 @@
         <v>#2</v>
       </c>
       <c r="F3" t="str">
-        <v>91 Slots</v>
+        <v>89 Slots</v>
       </c>
       <c r="G3" t="str">
-        <v>Tue, 31 May</v>
+        <v>Wed, 01 Jun</v>
       </c>
     </row>
     <row r="4">
@@ -475,10 +475,10 @@
         <v>#1</v>
       </c>
       <c r="F4" t="str">
-        <v>100 Slots</v>
+        <v>99 Slots</v>
       </c>
       <c r="G4" t="str">
-        <v>Tue, 31 May</v>
+        <v>Wed, 01 Jun</v>
       </c>
     </row>
     <row r="5">
@@ -498,64 +498,64 @@
         <v>#2</v>
       </c>
       <c r="F5" t="str">
-        <v>100 Slots</v>
+        <v>99 Slots</v>
       </c>
       <c r="G5" t="str">
-        <v>Tue, 31 May</v>
+        <v>Wed, 01 Jun</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>DARAGANJ I UPHC 18 (plus)</v>
       </c>
       <c r="B6" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C6" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="D6" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="E6" t="str">
         <v>#1</v>
       </c>
       <c r="F6" t="str">
-        <v>1 Slots</v>
+        <v>100 Slots</v>
       </c>
       <c r="G6" t="str">
-        <v>Tue, 31 May</v>
+        <v>Thu, 02 Jun</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>DARAGANJ I UPHC 18 (plus)</v>
       </c>
       <c r="B7" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C7" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="D7" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="E7" t="str">
         <v>#2</v>
       </c>
       <c r="F7" t="str">
-        <v>1 Slots</v>
+        <v>99 Slots</v>
       </c>
       <c r="G7" t="str">
-        <v>Tue, 31 May</v>
+        <v>Thu, 02 Jun</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>DARAGANJ I UPHC 18 (plus)</v>
       </c>
       <c r="B8" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C8" t="str">
         <v>COVAXINFree</v>
@@ -564,13 +564,13 @@
         <v>15 &amp; Above</v>
       </c>
       <c r="E8" t="str">
-        <v>Precaution</v>
+        <v>#1</v>
       </c>
       <c r="F8" t="str">
-        <v>1 Slots</v>
+        <v>100 Slots</v>
       </c>
       <c r="G8" t="str">
-        <v>Tue, 31 May</v>
+        <v>Thu, 02 Jun</v>
       </c>
     </row>
     <row r="9">
@@ -581,27 +581,27 @@
         <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C9" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D9" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E9" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="F9" t="str">
-        <v>100 Slots</v>
+        <v>99 Slots</v>
       </c>
       <c r="G9" t="str">
-        <v>Wed, 01 Jun</v>
+        <v>Thu, 02 Jun</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>Dufferin (18 Plus)</v>
       </c>
       <c r="B10" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C10" t="str">
         <v>COVISHIELDFree</v>
@@ -610,44 +610,44 @@
         <v>18 &amp; Above</v>
       </c>
       <c r="E10" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="F10" t="str">
-        <v>98 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G10" t="str">
-        <v>Wed, 01 Jun</v>
+        <v>Thu, 02 Jun</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>Dufferin (18 Plus)</v>
       </c>
       <c r="B11" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C11" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="D11" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="E11" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="F11" t="str">
-        <v>99 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G11" t="str">
-        <v>Wed, 01 Jun</v>
+        <v>Thu, 02 Jun</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>Dufferin (18 Plus)</v>
       </c>
       <c r="B12" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C12" t="str">
         <v>COVAXINFree</v>
@@ -656,13 +656,13 @@
         <v>15 &amp; Above</v>
       </c>
       <c r="E12" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="F12" t="str">
-        <v>100 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G12" t="str">
-        <v>Wed, 01 Jun</v>
+        <v>Thu, 02 Jun</v>
       </c>
     </row>
     <row r="13">
@@ -679,44 +679,44 @@
         <v>15 &amp; Above</v>
       </c>
       <c r="E13" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="F13" t="str">
-        <v>100 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G13" t="str">
-        <v>Wed, 01 Jun</v>
+        <v>Thu, 02 Jun</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>DARAGANJ I UPHC 18 (plus)</v>
       </c>
       <c r="B14" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C14" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="D14" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="E14" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="F14" t="str">
         <v>100 Slots</v>
       </c>
       <c r="G14" t="str">
-        <v>Wed, 01 Jun</v>
+        <v>Fri, 03 Jun</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>DARAGANJ I UPHC 18 (plus)</v>
       </c>
       <c r="B15" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C15" t="str">
         <v>COVISHIELDFree</v>
@@ -725,36 +725,36 @@
         <v>18 &amp; Above</v>
       </c>
       <c r="E15" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="F15" t="str">
         <v>100 Slots</v>
       </c>
       <c r="G15" t="str">
-        <v>Wed, 01 Jun</v>
+        <v>Fri, 03 Jun</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>DARAGANJ I UPHC 18 (plus)</v>
       </c>
       <c r="B16" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C16" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D16" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E16" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="F16" t="str">
         <v>100 Slots</v>
       </c>
       <c r="G16" t="str">
-        <v>Wed, 01 Jun</v>
+        <v>Fri, 03 Jun</v>
       </c>
     </row>
     <row r="17">
@@ -765,50 +765,50 @@
         <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C17" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D17" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E17" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="F17" t="str">
         <v>100 Slots</v>
       </c>
       <c r="G17" t="str">
-        <v>Thu, 02 Jun</v>
+        <v>Fri, 03 Jun</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>Dufferin (18 Plus)</v>
       </c>
       <c r="B18" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C18" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D18" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E18" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="F18" t="str">
-        <v>100 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G18" t="str">
-        <v>Thu, 02 Jun</v>
+        <v>Fri, 03 Jun</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>Dufferin (18 Plus)</v>
       </c>
       <c r="B19" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C19" t="str">
         <v>COVAXINFree</v>
@@ -817,13 +817,13 @@
         <v>15 &amp; Above</v>
       </c>
       <c r="E19" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="F19" t="str">
-        <v>100 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G19" t="str">
-        <v>Thu, 02 Jun</v>
+        <v>Fri, 03 Jun</v>
       </c>
     </row>
     <row r="20">
@@ -834,50 +834,50 @@
         <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C20" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="D20" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="E20" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="F20" t="str">
         <v>100 Slots</v>
       </c>
       <c r="G20" t="str">
-        <v>Thu, 02 Jun</v>
+        <v>Sat, 04 Jun</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>DARAGANJ I UPHC 18 (plus)</v>
       </c>
       <c r="B21" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C21" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="D21" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="E21" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="F21" t="str">
-        <v>1 Slots</v>
+        <v>98 Slots</v>
       </c>
       <c r="G21" t="str">
-        <v>Thu, 02 Jun</v>
+        <v>Sat, 04 Jun</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>DARAGANJ I UPHC 18 (plus)</v>
       </c>
       <c r="B22" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C22" t="str">
         <v>COVAXINFree</v>
@@ -886,202 +886,41 @@
         <v>15 &amp; Above</v>
       </c>
       <c r="E22" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="F22" t="str">
-        <v>1 Slots</v>
+        <v>100 Slots</v>
       </c>
       <c r="G22" t="str">
-        <v>Thu, 02 Jun</v>
+        <v>Sat, 04 Jun</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>DARAGANJ I UPHC 18 (plus)</v>
       </c>
       <c r="B23" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C23" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D23" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E23" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="F23" t="str">
-        <v>1 Slots</v>
+        <v>100 Slots</v>
       </c>
       <c r="G23" t="str">
-        <v>Thu, 02 Jun</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>Dufferin (18 Plus)</v>
-      </c>
-      <c r="B24" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
-      </c>
-      <c r="C24" t="str">
-        <v>COVISHIELDFree</v>
-      </c>
-      <c r="D24" t="str">
-        <v>18 &amp; Above</v>
-      </c>
-      <c r="E24" t="str">
-        <v>#2</v>
-      </c>
-      <c r="F24" t="str">
-        <v>1 Slots</v>
-      </c>
-      <c r="G24" t="str">
-        <v>Thu, 02 Jun</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
-      </c>
-      <c r="B25" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
-      </c>
-      <c r="C25" t="str">
-        <v>COVISHIELDFree</v>
-      </c>
-      <c r="D25" t="str">
-        <v>18 &amp; Above</v>
-      </c>
-      <c r="E25" t="str">
-        <v>#1</v>
-      </c>
-      <c r="F25" t="str">
-        <v>100 Slots</v>
-      </c>
-      <c r="G25" t="str">
-        <v>Fri, 03 Jun</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
-      </c>
-      <c r="B26" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
-      </c>
-      <c r="C26" t="str">
-        <v>COVISHIELDFree</v>
-      </c>
-      <c r="D26" t="str">
-        <v>18 &amp; Above</v>
-      </c>
-      <c r="E26" t="str">
-        <v>#2</v>
-      </c>
-      <c r="F26" t="str">
-        <v>100 Slots</v>
-      </c>
-      <c r="G26" t="str">
-        <v>Fri, 03 Jun</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
-      </c>
-      <c r="B27" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
-      </c>
-      <c r="C27" t="str">
-        <v>COVAXINFree</v>
-      </c>
-      <c r="D27" t="str">
-        <v>15 &amp; Above</v>
-      </c>
-      <c r="E27" t="str">
-        <v>#1</v>
-      </c>
-      <c r="F27" t="str">
-        <v>100 Slots</v>
-      </c>
-      <c r="G27" t="str">
-        <v>Fri, 03 Jun</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
-      </c>
-      <c r="B28" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
-      </c>
-      <c r="C28" t="str">
-        <v>COVAXINFree</v>
-      </c>
-      <c r="D28" t="str">
-        <v>15 &amp; Above</v>
-      </c>
-      <c r="E28" t="str">
-        <v>#2</v>
-      </c>
-      <c r="F28" t="str">
-        <v>100 Slots</v>
-      </c>
-      <c r="G28" t="str">
-        <v>Fri, 03 Jun</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>Dufferin (18 Plus)</v>
-      </c>
-      <c r="B29" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
-      </c>
-      <c r="C29" t="str">
-        <v>COVAXINFree</v>
-      </c>
-      <c r="D29" t="str">
-        <v>15 &amp; Above</v>
-      </c>
-      <c r="E29" t="str">
-        <v>#1</v>
-      </c>
-      <c r="F29" t="str">
-        <v>1 Slots</v>
-      </c>
-      <c r="G29" t="str">
-        <v>Fri, 03 Jun</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>Dufferin (18 Plus)</v>
-      </c>
-      <c r="B30" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
-      </c>
-      <c r="C30" t="str">
-        <v>COVAXINFree</v>
-      </c>
-      <c r="D30" t="str">
-        <v>15 &amp; Above</v>
-      </c>
-      <c r="E30" t="str">
-        <v>#2</v>
-      </c>
-      <c r="F30" t="str">
-        <v>1 Slots</v>
-      </c>
-      <c r="G30" t="str">
-        <v>Fri, 03 Jun</v>
+        <v>Sat, 04 Jun</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G23"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -414,16 +414,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>Dufferin (18 Plus)</v>
       </c>
       <c r="B2" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C2" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D2" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E2" t="str">
         <v>#1</v>
@@ -432,67 +432,67 @@
         <v>99 Slots</v>
       </c>
       <c r="G2" t="str">
-        <v>Wed, 01 Jun</v>
+        <v>Sat, 04 Jun</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>Dufferin (18 Plus)</v>
       </c>
       <c r="B3" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C3" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D3" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E3" t="str">
         <v>#2</v>
       </c>
       <c r="F3" t="str">
-        <v>89 Slots</v>
+        <v>100 Slots</v>
       </c>
       <c r="G3" t="str">
-        <v>Wed, 01 Jun</v>
+        <v>Sat, 04 Jun</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>Dufferin (18 Plus)</v>
       </c>
       <c r="B4" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C4" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="D4" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="E4" t="str">
         <v>#1</v>
       </c>
       <c r="F4" t="str">
-        <v>99 Slots</v>
+        <v>100 Slots</v>
       </c>
       <c r="G4" t="str">
-        <v>Wed, 01 Jun</v>
+        <v>Sat, 04 Jun</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>Dufferin (18 Plus)</v>
       </c>
       <c r="B5" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C5" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="D5" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="E5" t="str">
         <v>#2</v>
@@ -501,7 +501,7 @@
         <v>99 Slots</v>
       </c>
       <c r="G5" t="str">
-        <v>Wed, 01 Jun</v>
+        <v>Sat, 04 Jun</v>
       </c>
     </row>
     <row r="6">
@@ -521,10 +521,10 @@
         <v>#1</v>
       </c>
       <c r="F6" t="str">
-        <v>100 Slots</v>
+        <v>97 Slots</v>
       </c>
       <c r="G6" t="str">
-        <v>Thu, 02 Jun</v>
+        <v>Sat, 04 Jun</v>
       </c>
     </row>
     <row r="7">
@@ -544,10 +544,10 @@
         <v>#2</v>
       </c>
       <c r="F7" t="str">
-        <v>99 Slots</v>
+        <v>95 Slots</v>
       </c>
       <c r="G7" t="str">
-        <v>Thu, 02 Jun</v>
+        <v>Sat, 04 Jun</v>
       </c>
     </row>
     <row r="8">
@@ -570,7 +570,7 @@
         <v>100 Slots</v>
       </c>
       <c r="G8" t="str">
-        <v>Thu, 02 Jun</v>
+        <v>Sat, 04 Jun</v>
       </c>
     </row>
     <row r="9">
@@ -590,10 +590,10 @@
         <v>#2</v>
       </c>
       <c r="F9" t="str">
-        <v>99 Slots</v>
+        <v>100 Slots</v>
       </c>
       <c r="G9" t="str">
-        <v>Thu, 02 Jun</v>
+        <v>Sat, 04 Jun</v>
       </c>
     </row>
     <row r="10">
@@ -604,10 +604,10 @@
         <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C10" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D10" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E10" t="str">
         <v>#1</v>
@@ -616,7 +616,7 @@
         <v>1 Slots</v>
       </c>
       <c r="G10" t="str">
-        <v>Thu, 02 Jun</v>
+        <v>Mon, 06 Jun</v>
       </c>
     </row>
     <row r="11">
@@ -627,10 +627,10 @@
         <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C11" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D11" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E11" t="str">
         <v>#2</v>
@@ -639,7 +639,7 @@
         <v>1 Slots</v>
       </c>
       <c r="G11" t="str">
-        <v>Thu, 02 Jun</v>
+        <v>Mon, 06 Jun</v>
       </c>
     </row>
     <row r="12">
@@ -650,10 +650,10 @@
         <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C12" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="D12" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="E12" t="str">
         <v>#1</v>
@@ -662,7 +662,7 @@
         <v>1 Slots</v>
       </c>
       <c r="G12" t="str">
-        <v>Thu, 02 Jun</v>
+        <v>Mon, 06 Jun</v>
       </c>
     </row>
     <row r="13">
@@ -673,10 +673,10 @@
         <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C13" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="D13" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="E13" t="str">
         <v>#2</v>
@@ -685,242 +685,12 @@
         <v>1 Slots</v>
       </c>
       <c r="G13" t="str">
-        <v>Thu, 02 Jun</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
-      </c>
-      <c r="B14" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
-      </c>
-      <c r="C14" t="str">
-        <v>COVISHIELDFree</v>
-      </c>
-      <c r="D14" t="str">
-        <v>18 &amp; Above</v>
-      </c>
-      <c r="E14" t="str">
-        <v>#1</v>
-      </c>
-      <c r="F14" t="str">
-        <v>100 Slots</v>
-      </c>
-      <c r="G14" t="str">
-        <v>Fri, 03 Jun</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
-      </c>
-      <c r="B15" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
-      </c>
-      <c r="C15" t="str">
-        <v>COVISHIELDFree</v>
-      </c>
-      <c r="D15" t="str">
-        <v>18 &amp; Above</v>
-      </c>
-      <c r="E15" t="str">
-        <v>#2</v>
-      </c>
-      <c r="F15" t="str">
-        <v>100 Slots</v>
-      </c>
-      <c r="G15" t="str">
-        <v>Fri, 03 Jun</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
-      </c>
-      <c r="B16" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
-      </c>
-      <c r="C16" t="str">
-        <v>COVAXINFree</v>
-      </c>
-      <c r="D16" t="str">
-        <v>15 &amp; Above</v>
-      </c>
-      <c r="E16" t="str">
-        <v>#1</v>
-      </c>
-      <c r="F16" t="str">
-        <v>100 Slots</v>
-      </c>
-      <c r="G16" t="str">
-        <v>Fri, 03 Jun</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
-      </c>
-      <c r="B17" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
-      </c>
-      <c r="C17" t="str">
-        <v>COVAXINFree</v>
-      </c>
-      <c r="D17" t="str">
-        <v>15 &amp; Above</v>
-      </c>
-      <c r="E17" t="str">
-        <v>#2</v>
-      </c>
-      <c r="F17" t="str">
-        <v>100 Slots</v>
-      </c>
-      <c r="G17" t="str">
-        <v>Fri, 03 Jun</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>Dufferin (18 Plus)</v>
-      </c>
-      <c r="B18" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
-      </c>
-      <c r="C18" t="str">
-        <v>COVAXINFree</v>
-      </c>
-      <c r="D18" t="str">
-        <v>15 &amp; Above</v>
-      </c>
-      <c r="E18" t="str">
-        <v>#1</v>
-      </c>
-      <c r="F18" t="str">
-        <v>1 Slots</v>
-      </c>
-      <c r="G18" t="str">
-        <v>Fri, 03 Jun</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>Dufferin (18 Plus)</v>
-      </c>
-      <c r="B19" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
-      </c>
-      <c r="C19" t="str">
-        <v>COVAXINFree</v>
-      </c>
-      <c r="D19" t="str">
-        <v>15 &amp; Above</v>
-      </c>
-      <c r="E19" t="str">
-        <v>#2</v>
-      </c>
-      <c r="F19" t="str">
-        <v>1 Slots</v>
-      </c>
-      <c r="G19" t="str">
-        <v>Fri, 03 Jun</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
-      </c>
-      <c r="B20" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
-      </c>
-      <c r="C20" t="str">
-        <v>COVISHIELDFree</v>
-      </c>
-      <c r="D20" t="str">
-        <v>18 &amp; Above</v>
-      </c>
-      <c r="E20" t="str">
-        <v>#1</v>
-      </c>
-      <c r="F20" t="str">
-        <v>100 Slots</v>
-      </c>
-      <c r="G20" t="str">
-        <v>Sat, 04 Jun</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
-      </c>
-      <c r="B21" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
-      </c>
-      <c r="C21" t="str">
-        <v>COVISHIELDFree</v>
-      </c>
-      <c r="D21" t="str">
-        <v>18 &amp; Above</v>
-      </c>
-      <c r="E21" t="str">
-        <v>#2</v>
-      </c>
-      <c r="F21" t="str">
-        <v>98 Slots</v>
-      </c>
-      <c r="G21" t="str">
-        <v>Sat, 04 Jun</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
-      </c>
-      <c r="B22" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
-      </c>
-      <c r="C22" t="str">
-        <v>COVAXINFree</v>
-      </c>
-      <c r="D22" t="str">
-        <v>15 &amp; Above</v>
-      </c>
-      <c r="E22" t="str">
-        <v>#1</v>
-      </c>
-      <c r="F22" t="str">
-        <v>100 Slots</v>
-      </c>
-      <c r="G22" t="str">
-        <v>Sat, 04 Jun</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
-      </c>
-      <c r="B23" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
-      </c>
-      <c r="C23" t="str">
-        <v>COVAXINFree</v>
-      </c>
-      <c r="D23" t="str">
-        <v>15 &amp; Above</v>
-      </c>
-      <c r="E23" t="str">
-        <v>#2</v>
-      </c>
-      <c r="F23" t="str">
-        <v>100 Slots</v>
-      </c>
-      <c r="G23" t="str">
-        <v>Sat, 04 Jun</v>
+        <v>Mon, 06 Jun</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G23"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -385,7 +385,7 @@
     <col min="3" max="3" customWidth="1" width="21"/>
     <col min="4" max="4" customWidth="1" width="17"/>
     <col min="5" max="5" customWidth="1" width="11"/>
-    <col min="6" max="6" customWidth="1" width="16"/>
+    <col min="6" max="6" customWidth="1" width="14"/>
     <col min="7" max="7" customWidth="1" width="18"/>
   </cols>
   <sheetData>
@@ -414,10 +414,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>DARAGANJ I UPHC 18 (plus)</v>
       </c>
       <c r="B2" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C2" t="str">
         <v>COVAXINFree</v>
@@ -429,18 +429,18 @@
         <v>#1</v>
       </c>
       <c r="F2" t="str">
-        <v>99 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G2" t="str">
-        <v>Sat, 04 Jun</v>
+        <v>Sat, 18 Jun</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>DARAGANJ I UPHC 18 (plus)</v>
       </c>
       <c r="B3" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C3" t="str">
         <v>COVAXINFree</v>
@@ -452,56 +452,56 @@
         <v>#2</v>
       </c>
       <c r="F3" t="str">
-        <v>100 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G3" t="str">
-        <v>Sat, 04 Jun</v>
+        <v>Sat, 18 Jun</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>DARAGANJ I UPHC 18 (plus)</v>
       </c>
       <c r="B4" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C4" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D4" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E4" t="str">
         <v>#1</v>
       </c>
       <c r="F4" t="str">
-        <v>100 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G4" t="str">
-        <v>Sat, 04 Jun</v>
+        <v>Mon, 20 Jun</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>DARAGANJ I UPHC 18 (plus)</v>
       </c>
       <c r="B5" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C5" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D5" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E5" t="str">
         <v>#2</v>
       </c>
       <c r="F5" t="str">
-        <v>99 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G5" t="str">
-        <v>Sat, 04 Jun</v>
+        <v>Mon, 20 Jun</v>
       </c>
     </row>
     <row r="6">
@@ -521,10 +521,10 @@
         <v>#1</v>
       </c>
       <c r="F6" t="str">
-        <v>97 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G6" t="str">
-        <v>Sat, 04 Jun</v>
+        <v>Tue, 21 Jun</v>
       </c>
     </row>
     <row r="7">
@@ -535,19 +535,19 @@
         <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C7" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D7" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E7" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="F7" t="str">
-        <v>95 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G7" t="str">
-        <v>Sat, 04 Jun</v>
+        <v>Tue, 21 Jun</v>
       </c>
     </row>
     <row r="8">
@@ -564,13 +564,13 @@
         <v>15 &amp; Above</v>
       </c>
       <c r="E8" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="F8" t="str">
-        <v>100 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G8" t="str">
-        <v>Sat, 04 Jun</v>
+        <v>Tue, 21 Jun</v>
       </c>
     </row>
     <row r="9">
@@ -581,19 +581,19 @@
         <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C9" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="D9" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="E9" t="str">
         <v>#2</v>
       </c>
       <c r="F9" t="str">
-        <v>100 Slots</v>
+        <v>1 Slots</v>
       </c>
       <c r="G9" t="str">
-        <v>Sat, 04 Jun</v>
+        <v>Tue, 21 Jun</v>
       </c>
     </row>
     <row r="10">
@@ -616,7 +616,7 @@
         <v>1 Slots</v>
       </c>
       <c r="G10" t="str">
-        <v>Mon, 06 Jun</v>
+        <v>Tue, 21 Jun</v>
       </c>
     </row>
     <row r="11">
@@ -627,19 +627,19 @@
         <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C11" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="D11" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="E11" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="F11" t="str">
         <v>1 Slots</v>
       </c>
       <c r="G11" t="str">
-        <v>Mon, 06 Jun</v>
+        <v>Tue, 21 Jun</v>
       </c>
     </row>
     <row r="12">
@@ -656,13 +656,13 @@
         <v>18 &amp; Above</v>
       </c>
       <c r="E12" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="F12" t="str">
         <v>1 Slots</v>
       </c>
       <c r="G12" t="str">
-        <v>Mon, 06 Jun</v>
+        <v>Tue, 21 Jun</v>
       </c>
     </row>
     <row r="13">
@@ -673,10 +673,10 @@
         <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C13" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D13" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E13" t="str">
         <v>#2</v>
@@ -685,7 +685,7 @@
         <v>1 Slots</v>
       </c>
       <c r="G13" t="str">
-        <v>Mon, 06 Jun</v>
+        <v>Tue, 21 Jun</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +432,7 @@
         <v>1 Slots</v>
       </c>
       <c r="G2" t="str">
-        <v>Sat, 18 Jun</v>
+        <v>Mon, 20 Jun</v>
       </c>
     </row>
     <row r="3">
@@ -455,15 +455,15 @@
         <v>1 Slots</v>
       </c>
       <c r="G3" t="str">
-        <v>Sat, 18 Jun</v>
+        <v>Mon, 20 Jun</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>Dufferin (18 Plus)</v>
       </c>
       <c r="B4" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C4" t="str">
         <v>COVAXINFree</v>
@@ -478,38 +478,38 @@
         <v>1 Slots</v>
       </c>
       <c r="G4" t="str">
-        <v>Mon, 20 Jun</v>
+        <v>Tue, 21 Jun</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>Dufferin (18 Plus)</v>
       </c>
       <c r="B5" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C5" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="D5" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="E5" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="F5" t="str">
         <v>1 Slots</v>
       </c>
       <c r="G5" t="str">
-        <v>Mon, 20 Jun</v>
+        <v>Tue, 21 Jun</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>Dufferin (18 Plus)</v>
       </c>
       <c r="B6" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C6" t="str">
         <v>COVISHIELDFree</v>
@@ -518,7 +518,7 @@
         <v>18 &amp; Above</v>
       </c>
       <c r="E6" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="F6" t="str">
         <v>1 Slots</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>Dufferin (18 Plus)</v>
       </c>
       <c r="B7" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C7" t="str">
         <v>COVAXINFree</v>
@@ -541,7 +541,7 @@
         <v>15 &amp; Above</v>
       </c>
       <c r="E7" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="F7" t="str">
         <v>1 Slots</v>
@@ -558,13 +558,13 @@
         <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C8" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="D8" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="E8" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="F8" t="str">
         <v>1 Slots</v>
@@ -581,13 +581,13 @@
         <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C9" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D9" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E9" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="F9" t="str">
         <v>1 Slots</v>
@@ -598,10 +598,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>DARAGANJ I UPHC 18 (plus)</v>
       </c>
       <c r="B10" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C10" t="str">
         <v>COVAXINFree</v>
@@ -610,7 +610,7 @@
         <v>15 &amp; Above</v>
       </c>
       <c r="E10" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="F10" t="str">
         <v>1 Slots</v>
@@ -621,10 +621,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>DARAGANJ I UPHC 18 (plus)</v>
       </c>
       <c r="B11" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C11" t="str">
         <v>COVISHIELDFree</v>
@@ -633,7 +633,7 @@
         <v>18 &amp; Above</v>
       </c>
       <c r="E11" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="F11" t="str">
         <v>1 Slots</v>
@@ -650,19 +650,19 @@
         <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C12" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D12" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E12" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="F12" t="str">
         <v>1 Slots</v>
       </c>
       <c r="G12" t="str">
-        <v>Tue, 21 Jun</v>
+        <v>Wed, 22 Jun</v>
       </c>
     </row>
     <row r="13">
@@ -673,24 +673,162 @@
         <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C13" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="D13" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="E13" t="str">
+        <v>#1</v>
+      </c>
+      <c r="F13" t="str">
+        <v>1 Slots</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Wed, 22 Jun</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Dufferin (18 Plus)</v>
+      </c>
+      <c r="B14" t="str">
+        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+      </c>
+      <c r="C14" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D14" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="E14" t="str">
         <v>#2</v>
       </c>
-      <c r="F13" t="str">
-        <v>1 Slots</v>
-      </c>
-      <c r="G13" t="str">
-        <v>Tue, 21 Jun</v>
+      <c r="F14" t="str">
+        <v>1 Slots</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Wed, 22 Jun</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Dufferin (18 Plus)</v>
+      </c>
+      <c r="B15" t="str">
+        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+      </c>
+      <c r="C15" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D15" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E15" t="str">
+        <v>#2</v>
+      </c>
+      <c r="F15" t="str">
+        <v>1 Slots</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Wed, 22 Jun</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>DARAGANJ I UPHC 18 (plus)</v>
+      </c>
+      <c r="B16" t="str">
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+      </c>
+      <c r="C16" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D16" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="E16" t="str">
+        <v>#1</v>
+      </c>
+      <c r="F16" t="str">
+        <v>1 Slots</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Wed, 22 Jun</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>DARAGANJ I UPHC 18 (plus)</v>
+      </c>
+      <c r="B17" t="str">
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+      </c>
+      <c r="C17" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D17" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E17" t="str">
+        <v>#1</v>
+      </c>
+      <c r="F17" t="str">
+        <v>1 Slots</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Wed, 22 Jun</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>DARAGANJ I UPHC 18 (plus)</v>
+      </c>
+      <c r="B18" t="str">
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+      </c>
+      <c r="C18" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D18" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E18" t="str">
+        <v>#2</v>
+      </c>
+      <c r="F18" t="str">
+        <v>1 Slots</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Wed, 22 Jun</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>DARAGANJ I UPHC 18 (plus)</v>
+      </c>
+      <c r="B19" t="str">
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+      </c>
+      <c r="C19" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D19" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="E19" t="str">
+        <v>#2</v>
+      </c>
+      <c r="F19" t="str">
+        <v>1 Slots</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Wed, 22 Jun</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G19"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -437,10 +437,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>Dufferin (18 Plus)</v>
       </c>
       <c r="B3" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C3" t="str">
         <v>COVAXINFree</v>
@@ -449,13 +449,13 @@
         <v>15 &amp; Above</v>
       </c>
       <c r="E3" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="F3" t="str">
         <v>1 Slots</v>
       </c>
       <c r="G3" t="str">
-        <v>Mon, 20 Jun</v>
+        <v>Tue, 21 Jun</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>15 &amp; Above</v>
       </c>
       <c r="E4" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="F4" t="str">
         <v>1 Slots</v>
@@ -483,10 +483,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>DARAGANJ I UPHC 18 (plus)</v>
       </c>
       <c r="B5" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C5" t="str">
         <v>COVISHIELDFree</v>
@@ -506,19 +506,19 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>DARAGANJ I UPHC 18 (plus)</v>
       </c>
       <c r="B6" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C6" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D6" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E6" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="F6" t="str">
         <v>1 Slots</v>
@@ -529,16 +529,16 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>DARAGANJ I UPHC 18 (plus)</v>
       </c>
       <c r="B7" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C7" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="D7" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="E7" t="str">
         <v>#2</v>
@@ -558,13 +558,13 @@
         <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C8" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D8" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E8" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="F8" t="str">
         <v>1 Slots</v>
@@ -575,10 +575,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>Dufferin (18 Plus)</v>
       </c>
       <c r="B9" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C9" t="str">
         <v>COVAXINFree</v>
@@ -593,44 +593,44 @@
         <v>1 Slots</v>
       </c>
       <c r="G9" t="str">
-        <v>Tue, 21 Jun</v>
+        <v>Wed, 22 Jun</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>Dufferin (18 Plus)</v>
       </c>
       <c r="B10" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C10" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="D10" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="E10" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="F10" t="str">
         <v>1 Slots</v>
       </c>
       <c r="G10" t="str">
-        <v>Tue, 21 Jun</v>
+        <v>Wed, 22 Jun</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>Dufferin (18 Plus)</v>
       </c>
       <c r="B11" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C11" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D11" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E11" t="str">
         <v>#2</v>
@@ -639,21 +639,21 @@
         <v>1 Slots</v>
       </c>
       <c r="G11" t="str">
-        <v>Tue, 21 Jun</v>
+        <v>Wed, 22 Jun</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>DARAGANJ I UPHC 18 (plus)</v>
       </c>
       <c r="B12" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C12" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="D12" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="E12" t="str">
         <v>#1</v>
@@ -667,16 +667,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>DARAGANJ I UPHC 18 (plus)</v>
       </c>
       <c r="B13" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C13" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D13" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E13" t="str">
         <v>#1</v>
@@ -690,10 +690,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>DARAGANJ I UPHC 18 (plus)</v>
       </c>
       <c r="B14" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C14" t="str">
         <v>COVISHIELDFree</v>
@@ -713,10 +713,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>DARAGANJ I UPHC 18 (plus)</v>
       </c>
       <c r="B15" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C15" t="str">
         <v>COVAXINFree</v>
@@ -734,101 +734,9 @@
         <v>Wed, 22 Jun</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
-      </c>
-      <c r="B16" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
-      </c>
-      <c r="C16" t="str">
-        <v>COVISHIELDFree</v>
-      </c>
-      <c r="D16" t="str">
-        <v>18 &amp; Above</v>
-      </c>
-      <c r="E16" t="str">
-        <v>#1</v>
-      </c>
-      <c r="F16" t="str">
-        <v>1 Slots</v>
-      </c>
-      <c r="G16" t="str">
-        <v>Wed, 22 Jun</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
-      </c>
-      <c r="B17" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
-      </c>
-      <c r="C17" t="str">
-        <v>COVAXINFree</v>
-      </c>
-      <c r="D17" t="str">
-        <v>15 &amp; Above</v>
-      </c>
-      <c r="E17" t="str">
-        <v>#1</v>
-      </c>
-      <c r="F17" t="str">
-        <v>1 Slots</v>
-      </c>
-      <c r="G17" t="str">
-        <v>Wed, 22 Jun</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
-      </c>
-      <c r="B18" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
-      </c>
-      <c r="C18" t="str">
-        <v>COVAXINFree</v>
-      </c>
-      <c r="D18" t="str">
-        <v>15 &amp; Above</v>
-      </c>
-      <c r="E18" t="str">
-        <v>#2</v>
-      </c>
-      <c r="F18" t="str">
-        <v>1 Slots</v>
-      </c>
-      <c r="G18" t="str">
-        <v>Wed, 22 Jun</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
-      </c>
-      <c r="B19" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
-      </c>
-      <c r="C19" t="str">
-        <v>COVISHIELDFree</v>
-      </c>
-      <c r="D19" t="str">
-        <v>18 &amp; Above</v>
-      </c>
-      <c r="E19" t="str">
-        <v>#2</v>
-      </c>
-      <c r="F19" t="str">
-        <v>1 Slots</v>
-      </c>
-      <c r="G19" t="str">
-        <v>Wed, 22 Jun</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G15"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -420,10 +420,10 @@
         <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C2" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="D2" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="E2" t="str">
         <v>#1</v>
@@ -432,15 +432,15 @@
         <v>1 Slots</v>
       </c>
       <c r="G2" t="str">
-        <v>Mon, 20 Jun</v>
+        <v>Wed, 22 Jun</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>DARAGANJ I UPHC 18 (plus)</v>
       </c>
       <c r="B3" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C3" t="str">
         <v>COVAXINFree</v>
@@ -455,30 +455,30 @@
         <v>1 Slots</v>
       </c>
       <c r="G3" t="str">
-        <v>Tue, 21 Jun</v>
+        <v>Wed, 22 Jun</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>DARAGANJ I UPHC 18 (plus)</v>
       </c>
       <c r="B4" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C4" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="D4" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="E4" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="F4" t="str">
         <v>1 Slots</v>
       </c>
       <c r="G4" t="str">
-        <v>Tue, 21 Jun</v>
+        <v>Thu, 23 Jun</v>
       </c>
     </row>
     <row r="5">
@@ -489,10 +489,10 @@
         <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C5" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D5" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E5" t="str">
         <v>#1</v>
@@ -501,7 +501,7 @@
         <v>1 Slots</v>
       </c>
       <c r="G5" t="str">
-        <v>Tue, 21 Jun</v>
+        <v>Thu, 23 Jun</v>
       </c>
     </row>
     <row r="6">
@@ -518,44 +518,44 @@
         <v>15 &amp; Above</v>
       </c>
       <c r="E6" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="F6" t="str">
         <v>1 Slots</v>
       </c>
       <c r="G6" t="str">
-        <v>Tue, 21 Jun</v>
+        <v>Thu, 23 Jun</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>Dufferin (18 Plus)</v>
       </c>
       <c r="B7" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C7" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D7" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E7" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="F7" t="str">
         <v>1 Slots</v>
       </c>
       <c r="G7" t="str">
-        <v>Tue, 21 Jun</v>
+        <v>Thu, 23 Jun</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>Dufferin (18 Plus)</v>
       </c>
       <c r="B8" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C8" t="str">
         <v>COVAXINFree</v>
@@ -570,21 +570,21 @@
         <v>1 Slots</v>
       </c>
       <c r="G8" t="str">
-        <v>Tue, 21 Jun</v>
+        <v>Thu, 23 Jun</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>DARAGANJ I UPHC 18 (plus)</v>
       </c>
       <c r="B9" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C9" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="D9" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="E9" t="str">
         <v>#1</v>
@@ -593,7 +593,7 @@
         <v>1 Slots</v>
       </c>
       <c r="G9" t="str">
-        <v>Wed, 22 Jun</v>
+        <v>Fri, 24 Jun</v>
       </c>
     </row>
     <row r="10">
@@ -616,7 +616,7 @@
         <v>1 Slots</v>
       </c>
       <c r="G10" t="str">
-        <v>Wed, 22 Jun</v>
+        <v>Fri, 24 Jun</v>
       </c>
     </row>
     <row r="11">
@@ -633,36 +633,36 @@
         <v>15 &amp; Above</v>
       </c>
       <c r="E11" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="F11" t="str">
         <v>1 Slots</v>
       </c>
       <c r="G11" t="str">
-        <v>Wed, 22 Jun</v>
+        <v>Fri, 24 Jun</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>Dufferin (18 Plus)</v>
       </c>
       <c r="B12" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C12" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D12" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E12" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="F12" t="str">
         <v>1 Slots</v>
       </c>
       <c r="G12" t="str">
-        <v>Wed, 22 Jun</v>
+        <v>Fri, 24 Jun</v>
       </c>
     </row>
     <row r="13">
@@ -673,10 +673,10 @@
         <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C13" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="D13" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="E13" t="str">
         <v>#1</v>
@@ -685,7 +685,7 @@
         <v>1 Slots</v>
       </c>
       <c r="G13" t="str">
-        <v>Wed, 22 Jun</v>
+        <v>Sat, 25 Jun</v>
       </c>
     </row>
     <row r="14">
@@ -696,19 +696,19 @@
         <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
       </c>
       <c r="C14" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D14" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E14" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="F14" t="str">
         <v>1 Slots</v>
       </c>
       <c r="G14" t="str">
-        <v>Wed, 22 Jun</v>
+        <v>Sat, 25 Jun</v>
       </c>
     </row>
     <row r="15">
@@ -731,12 +731,81 @@
         <v>1 Slots</v>
       </c>
       <c r="G15" t="str">
-        <v>Wed, 22 Jun</v>
+        <v>Sat, 25 Jun</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Dufferin (18 Plus)</v>
+      </c>
+      <c r="B16" t="str">
+        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+      </c>
+      <c r="C16" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D16" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="E16" t="str">
+        <v>#1</v>
+      </c>
+      <c r="F16" t="str">
+        <v>1 Slots</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Sat, 25 Jun</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Dufferin (18 Plus)</v>
+      </c>
+      <c r="B17" t="str">
+        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+      </c>
+      <c r="C17" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D17" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E17" t="str">
+        <v>#2</v>
+      </c>
+      <c r="F17" t="str">
+        <v>1 Slots</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Sat, 25 Jun</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Dufferin (18 Plus)</v>
+      </c>
+      <c r="B18" t="str">
+        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+      </c>
+      <c r="C18" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D18" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="E18" t="str">
+        <v>#2</v>
+      </c>
+      <c r="F18" t="str">
+        <v>1 Slots</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Sat, 25 Jun</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G18"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -375,17 +375,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" customWidth="1" width="32"/>
-    <col min="2" max="2" customWidth="1" width="74"/>
+    <col min="1" max="1" customWidth="1" width="31"/>
+    <col min="2" max="2" customWidth="1" width="73"/>
     <col min="3" max="3" customWidth="1" width="21"/>
     <col min="4" max="4" customWidth="1" width="17"/>
-    <col min="5" max="5" customWidth="1" width="11"/>
-    <col min="6" max="6" customWidth="1" width="14"/>
+    <col min="5" max="5" customWidth="1" width="17"/>
+    <col min="6" max="6" customWidth="1" width="16"/>
     <col min="7" max="7" customWidth="1" width="18"/>
   </cols>
   <sheetData>
@@ -414,22 +414,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>CHC CHAKA (15-17 YRS)</v>
       </c>
       <c r="B2" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>CHC CHAKA (WALK IN AVAILABLE), Prayagraj, Uttar Pradesh, 211008</v>
       </c>
       <c r="C2" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D2" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E2" t="str">
         <v>#1</v>
       </c>
       <c r="F2" t="str">
-        <v>1 Slots</v>
+        <v>149 Slots</v>
       </c>
       <c r="G2" t="str">
         <v>Wed, 22 Jun</v>
@@ -437,10 +437,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>CHC CHAKA (15-17 YRS)</v>
       </c>
       <c r="B3" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>CHC CHAKA (WALK IN AVAILABLE), Prayagraj, Uttar Pradesh, 211008</v>
       </c>
       <c r="C3" t="str">
         <v>COVAXINFree</v>
@@ -449,10 +449,10 @@
         <v>15 &amp; Above</v>
       </c>
       <c r="E3" t="str">
-        <v>#1</v>
+        <v>Precaution</v>
       </c>
       <c r="F3" t="str">
-        <v>1 Slots</v>
+        <v>150 Slots</v>
       </c>
       <c r="G3" t="str">
         <v>Wed, 22 Jun</v>
@@ -460,33 +460,33 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>CHC Chaka (18 Plus)</v>
       </c>
       <c r="B4" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>CHC Chaka (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
       </c>
       <c r="C4" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D4" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E4" t="str">
         <v>#1</v>
       </c>
       <c r="F4" t="str">
-        <v>1 Slots</v>
+        <v>150 Slots</v>
       </c>
       <c r="G4" t="str">
-        <v>Thu, 23 Jun</v>
+        <v>Wed, 22 Jun</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>CHC Chaka (18 Plus)</v>
       </c>
       <c r="B5" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>CHC Chaka (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
       </c>
       <c r="C5" t="str">
         <v>COVAXINFree</v>
@@ -495,67 +495,67 @@
         <v>15 &amp; Above</v>
       </c>
       <c r="E5" t="str">
-        <v>#1</v>
+        <v>Precaution</v>
       </c>
       <c r="F5" t="str">
-        <v>1 Slots</v>
+        <v>150 Slots</v>
       </c>
       <c r="G5" t="str">
-        <v>Thu, 23 Jun</v>
+        <v>Wed, 22 Jun</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>CHC Chaka (18 Plus)</v>
       </c>
       <c r="B6" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>CHC Chaka (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
       </c>
       <c r="C6" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="D6" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="E6" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="F6" t="str">
-        <v>1 Slots</v>
+        <v>600 Slots</v>
       </c>
       <c r="G6" t="str">
-        <v>Thu, 23 Jun</v>
+        <v>Wed, 22 Jun</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>CHC Chaka (18 Plus)</v>
       </c>
       <c r="B7" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>CHC Chaka (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
       </c>
       <c r="C7" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="D7" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="E7" t="str">
-        <v>#1</v>
+        <v>Precaution</v>
       </c>
       <c r="F7" t="str">
-        <v>1 Slots</v>
+        <v>149 Slots</v>
       </c>
       <c r="G7" t="str">
-        <v>Thu, 23 Jun</v>
+        <v>Wed, 22 Jun</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>CHC CHAKA (15-17 YRS)</v>
       </c>
       <c r="B8" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>CHC CHAKA (WALK IN AVAILABLE), Prayagraj, Uttar Pradesh, 211008</v>
       </c>
       <c r="C8" t="str">
         <v>COVAXINFree</v>
@@ -564,10 +564,10 @@
         <v>15 &amp; Above</v>
       </c>
       <c r="E8" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="F8" t="str">
-        <v>1 Slots</v>
+        <v>150 Slots</v>
       </c>
       <c r="G8" t="str">
         <v>Thu, 23 Jun</v>
@@ -575,56 +575,56 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>CHC CHAKA (15-17 YRS)</v>
       </c>
       <c r="B9" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>CHC CHAKA (WALK IN AVAILABLE), Prayagraj, Uttar Pradesh, 211008</v>
       </c>
       <c r="C9" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D9" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E9" t="str">
-        <v>#1</v>
+        <v>Precaution</v>
       </c>
       <c r="F9" t="str">
-        <v>1 Slots</v>
+        <v>150 Slots</v>
       </c>
       <c r="G9" t="str">
-        <v>Fri, 24 Jun</v>
+        <v>Thu, 23 Jun</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>CHC Chaka (18 Plus)</v>
       </c>
       <c r="B10" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>CHC Chaka (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
       </c>
       <c r="C10" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D10" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E10" t="str">
         <v>#1</v>
       </c>
       <c r="F10" t="str">
-        <v>1 Slots</v>
+        <v>150 Slots</v>
       </c>
       <c r="G10" t="str">
-        <v>Fri, 24 Jun</v>
+        <v>Thu, 23 Jun</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>CHC Chaka (18 Plus)</v>
       </c>
       <c r="B11" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>CHC Chaka (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
       </c>
       <c r="C11" t="str">
         <v>COVAXINFree</v>
@@ -633,44 +633,44 @@
         <v>15 &amp; Above</v>
       </c>
       <c r="E11" t="str">
-        <v>#1</v>
+        <v>Precaution</v>
       </c>
       <c r="F11" t="str">
-        <v>1 Slots</v>
+        <v>150 Slots</v>
       </c>
       <c r="G11" t="str">
-        <v>Fri, 24 Jun</v>
+        <v>Thu, 23 Jun</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>CHC Chaka (18 Plus)</v>
       </c>
       <c r="B12" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>CHC Chaka (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
       </c>
       <c r="C12" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="D12" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="E12" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="F12" t="str">
-        <v>1 Slots</v>
+        <v>600 Slots</v>
       </c>
       <c r="G12" t="str">
-        <v>Fri, 24 Jun</v>
+        <v>Thu, 23 Jun</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>CHC Chaka (18 Plus)</v>
       </c>
       <c r="B13" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>CHC Chaka (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
       </c>
       <c r="C13" t="str">
         <v>COVISHIELDFree</v>
@@ -679,21 +679,21 @@
         <v>18 &amp; Above</v>
       </c>
       <c r="E13" t="str">
-        <v>#1</v>
+        <v>Precaution</v>
       </c>
       <c r="F13" t="str">
-        <v>1 Slots</v>
+        <v>150 Slots</v>
       </c>
       <c r="G13" t="str">
-        <v>Sat, 25 Jun</v>
+        <v>Thu, 23 Jun</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>ESIC NAINI 18 (plus)</v>
       </c>
       <c r="B14" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>ESIC NAINI PRAYAGRAJ 18(plus), Prayagraj, Uttar Pradesh, 211008</v>
       </c>
       <c r="C14" t="str">
         <v>COVAXINFree</v>
@@ -708,61 +708,61 @@
         <v>1 Slots</v>
       </c>
       <c r="G14" t="str">
-        <v>Sat, 25 Jun</v>
+        <v>Thu, 23 Jun</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>DARAGANJ I UPHC 18 (plus)</v>
+        <v>ESIC NAINI 18 (plus)</v>
       </c>
       <c r="B15" t="str">
-        <v>DARAGANJ UPHC I 18 (plus), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>ESIC NAINI PRAYAGRAJ 18(plus), Prayagraj, Uttar Pradesh, 211008</v>
       </c>
       <c r="C15" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="D15" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="E15" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="F15" t="str">
         <v>1 Slots</v>
       </c>
       <c r="G15" t="str">
-        <v>Sat, 25 Jun</v>
+        <v>Thu, 23 Jun</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>CHC PHOOLPUR (15-17 YRS)</v>
       </c>
       <c r="B16" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>CHC PHOOLPUR (WALK IN AVAILABLE), Prayagraj, Uttar Pradesh, 211008</v>
       </c>
       <c r="C16" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D16" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E16" t="str">
         <v>#1</v>
       </c>
       <c r="F16" t="str">
-        <v>1 Slots</v>
+        <v>150 Slots</v>
       </c>
       <c r="G16" t="str">
-        <v>Sat, 25 Jun</v>
+        <v>Thu, 23 Jun</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>CHC PHOOLPUR (15-17 YRS)</v>
       </c>
       <c r="B17" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>CHC PHOOLPUR (WALK IN AVAILABLE), Prayagraj, Uttar Pradesh, 211008</v>
       </c>
       <c r="C17" t="str">
         <v>COVAXINFree</v>
@@ -771,41 +771,846 @@
         <v>15 &amp; Above</v>
       </c>
       <c r="E17" t="str">
-        <v>#2</v>
+        <v>Precaution</v>
       </c>
       <c r="F17" t="str">
-        <v>1 Slots</v>
+        <v>150 Slots</v>
       </c>
       <c r="G17" t="str">
-        <v>Sat, 25 Jun</v>
+        <v>Thu, 23 Jun</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Dufferin (18 Plus)</v>
+        <v>CHC Phoolpur (18 Plus)</v>
       </c>
       <c r="B18" t="str">
-        <v>DISTRCT WOMEN HOSPITAL (Dufferin), Prayagraj, Uttar Pradesh, 211006</v>
+        <v>CHC Phoolpur (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
       </c>
       <c r="C18" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="D18" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="E18" t="str">
+        <v>#1</v>
+      </c>
+      <c r="F18" t="str">
+        <v>150 Slots</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Thu, 23 Jun</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>CHC Phoolpur (18 Plus)</v>
+      </c>
+      <c r="B19" t="str">
+        <v>CHC Phoolpur (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C19" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D19" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="F19" t="str">
+        <v>150 Slots</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Thu, 23 Jun</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>CHC Phoolpur (18 Plus)</v>
+      </c>
+      <c r="B20" t="str">
+        <v>CHC Phoolpur (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C20" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D20" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="E20" t="str">
+        <v>#1</v>
+      </c>
+      <c r="F20" t="str">
+        <v>600 Slots</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Thu, 23 Jun</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>CHC Phoolpur (18 Plus)</v>
+      </c>
+      <c r="B21" t="str">
+        <v>CHC Phoolpur (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C21" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D21" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="F21" t="str">
+        <v>150 Slots</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Thu, 23 Jun</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>CHC CHAKA (15-17 YRS)</v>
+      </c>
+      <c r="B22" t="str">
+        <v>CHC CHAKA (WALK IN AVAILABLE), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C22" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D22" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E22" t="str">
+        <v>#1</v>
+      </c>
+      <c r="F22" t="str">
+        <v>150 Slots</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Fri, 24 Jun</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>CHC CHAKA (15-17 YRS)</v>
+      </c>
+      <c r="B23" t="str">
+        <v>CHC CHAKA (WALK IN AVAILABLE), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C23" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D23" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="F23" t="str">
+        <v>150 Slots</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Fri, 24 Jun</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>CHC Chaka (18 Plus)</v>
+      </c>
+      <c r="B24" t="str">
+        <v>CHC Chaka (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C24" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D24" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E24" t="str">
+        <v>#1</v>
+      </c>
+      <c r="F24" t="str">
+        <v>150 Slots</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Fri, 24 Jun</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>CHC Chaka (18 Plus)</v>
+      </c>
+      <c r="B25" t="str">
+        <v>CHC Chaka (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C25" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D25" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="F25" t="str">
+        <v>150 Slots</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Fri, 24 Jun</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>CHC Chaka (18 Plus)</v>
+      </c>
+      <c r="B26" t="str">
+        <v>CHC Chaka (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C26" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D26" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="E26" t="str">
+        <v>#1</v>
+      </c>
+      <c r="F26" t="str">
+        <v>600 Slots</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Fri, 24 Jun</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>CHC Chaka (18 Plus)</v>
+      </c>
+      <c r="B27" t="str">
+        <v>CHC Chaka (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C27" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D27" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="F27" t="str">
+        <v>150 Slots</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Fri, 24 Jun</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>ESIC NAINI 18 (plus)</v>
+      </c>
+      <c r="B28" t="str">
+        <v>ESIC NAINI PRAYAGRAJ 18(plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C28" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D28" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="E28" t="str">
+        <v>#1</v>
+      </c>
+      <c r="F28" t="str">
+        <v>1 Slots</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Fri, 24 Jun</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>ESIC NAINI 18 (plus)</v>
+      </c>
+      <c r="B29" t="str">
+        <v>ESIC NAINI PRAYAGRAJ 18(plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C29" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D29" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="E29" t="str">
         <v>#2</v>
       </c>
-      <c r="F18" t="str">
+      <c r="F29" t="str">
         <v>1 Slots</v>
       </c>
-      <c r="G18" t="str">
+      <c r="G29" t="str">
+        <v>Fri, 24 Jun</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>ESIC NAINI 18 (plus)</v>
+      </c>
+      <c r="B30" t="str">
+        <v>ESIC NAINI PRAYAGRAJ 18(plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C30" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D30" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E30" t="str">
+        <v>#2</v>
+      </c>
+      <c r="F30" t="str">
+        <v>1 Slots</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Fri, 24 Jun</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>CHC PHOOLPUR (15-17 YRS)</v>
+      </c>
+      <c r="B31" t="str">
+        <v>CHC PHOOLPUR (WALK IN AVAILABLE), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C31" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D31" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E31" t="str">
+        <v>#1</v>
+      </c>
+      <c r="F31" t="str">
+        <v>150 Slots</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Fri, 24 Jun</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>CHC PHOOLPUR (15-17 YRS)</v>
+      </c>
+      <c r="B32" t="str">
+        <v>CHC PHOOLPUR (WALK IN AVAILABLE), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C32" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D32" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="F32" t="str">
+        <v>150 Slots</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Fri, 24 Jun</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>CHC Phoolpur (18 Plus)</v>
+      </c>
+      <c r="B33" t="str">
+        <v>CHC Phoolpur (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C33" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D33" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E33" t="str">
+        <v>#1</v>
+      </c>
+      <c r="F33" t="str">
+        <v>150 Slots</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Fri, 24 Jun</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>CHC Phoolpur (18 Plus)</v>
+      </c>
+      <c r="B34" t="str">
+        <v>CHC Phoolpur (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C34" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D34" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="F34" t="str">
+        <v>150 Slots</v>
+      </c>
+      <c r="G34" t="str">
+        <v>Fri, 24 Jun</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>CHC Phoolpur (18 Plus)</v>
+      </c>
+      <c r="B35" t="str">
+        <v>CHC Phoolpur (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C35" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D35" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="E35" t="str">
+        <v>#1</v>
+      </c>
+      <c r="F35" t="str">
+        <v>600 Slots</v>
+      </c>
+      <c r="G35" t="str">
+        <v>Fri, 24 Jun</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>CHC Phoolpur (18 Plus)</v>
+      </c>
+      <c r="B36" t="str">
+        <v>CHC Phoolpur (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C36" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D36" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="F36" t="str">
+        <v>150 Slots</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Fri, 24 Jun</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>CHC CHAKA (15-17 YRS)</v>
+      </c>
+      <c r="B37" t="str">
+        <v>CHC CHAKA (WALK IN AVAILABLE), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C37" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D37" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E37" t="str">
+        <v>#1</v>
+      </c>
+      <c r="F37" t="str">
+        <v>150 Slots</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Sat, 25 Jun</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>CHC CHAKA (15-17 YRS)</v>
+      </c>
+      <c r="B38" t="str">
+        <v>CHC CHAKA (WALK IN AVAILABLE), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C38" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D38" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="F38" t="str">
+        <v>150 Slots</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Sat, 25 Jun</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>CHC Chaka (18 Plus)</v>
+      </c>
+      <c r="B39" t="str">
+        <v>CHC Chaka (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C39" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D39" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E39" t="str">
+        <v>#1</v>
+      </c>
+      <c r="F39" t="str">
+        <v>150 Slots</v>
+      </c>
+      <c r="G39" t="str">
+        <v>Sat, 25 Jun</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>CHC Chaka (18 Plus)</v>
+      </c>
+      <c r="B40" t="str">
+        <v>CHC Chaka (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C40" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D40" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="F40" t="str">
+        <v>150 Slots</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Sat, 25 Jun</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>CHC Chaka (18 Plus)</v>
+      </c>
+      <c r="B41" t="str">
+        <v>CHC Chaka (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C41" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D41" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="E41" t="str">
+        <v>#1</v>
+      </c>
+      <c r="F41" t="str">
+        <v>600 Slots</v>
+      </c>
+      <c r="G41" t="str">
+        <v>Sat, 25 Jun</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>CHC Chaka (18 Plus)</v>
+      </c>
+      <c r="B42" t="str">
+        <v>CHC Chaka (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C42" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D42" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="F42" t="str">
+        <v>150 Slots</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Sat, 25 Jun</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>ESIC NAINI 18 (plus)</v>
+      </c>
+      <c r="B43" t="str">
+        <v>ESIC NAINI PRAYAGRAJ 18(plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C43" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D43" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E43" t="str">
+        <v>#1</v>
+      </c>
+      <c r="F43" t="str">
+        <v>1 Slots</v>
+      </c>
+      <c r="G43" t="str">
+        <v>Sat, 25 Jun</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>ESIC NAINI 18 (plus)</v>
+      </c>
+      <c r="B44" t="str">
+        <v>ESIC NAINI PRAYAGRAJ 18(plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C44" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D44" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="E44" t="str">
+        <v>#1</v>
+      </c>
+      <c r="F44" t="str">
+        <v>1 Slots</v>
+      </c>
+      <c r="G44" t="str">
+        <v>Sat, 25 Jun</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>ESIC NAINI 18 (plus)</v>
+      </c>
+      <c r="B45" t="str">
+        <v>ESIC NAINI PRAYAGRAJ 18(plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C45" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D45" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="E45" t="str">
+        <v>#2</v>
+      </c>
+      <c r="F45" t="str">
+        <v>1 Slots</v>
+      </c>
+      <c r="G45" t="str">
+        <v>Sat, 25 Jun</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>ESIC NAINI 18 (plus)</v>
+      </c>
+      <c r="B46" t="str">
+        <v>ESIC NAINI PRAYAGRAJ 18(plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C46" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D46" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E46" t="str">
+        <v>#2</v>
+      </c>
+      <c r="F46" t="str">
+        <v>1 Slots</v>
+      </c>
+      <c r="G46" t="str">
+        <v>Sat, 25 Jun</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>CHC PHOOLPUR (15-17 YRS)</v>
+      </c>
+      <c r="B47" t="str">
+        <v>CHC PHOOLPUR (WALK IN AVAILABLE), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C47" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D47" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E47" t="str">
+        <v>#1</v>
+      </c>
+      <c r="F47" t="str">
+        <v>150 Slots</v>
+      </c>
+      <c r="G47" t="str">
+        <v>Sat, 25 Jun</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>CHC PHOOLPUR (15-17 YRS)</v>
+      </c>
+      <c r="B48" t="str">
+        <v>CHC PHOOLPUR (WALK IN AVAILABLE), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C48" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D48" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="F48" t="str">
+        <v>150 Slots</v>
+      </c>
+      <c r="G48" t="str">
+        <v>Sat, 25 Jun</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>CHC Phoolpur (18 Plus)</v>
+      </c>
+      <c r="B49" t="str">
+        <v>CHC Phoolpur (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C49" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D49" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E49" t="str">
+        <v>#1</v>
+      </c>
+      <c r="F49" t="str">
+        <v>150 Slots</v>
+      </c>
+      <c r="G49" t="str">
+        <v>Sat, 25 Jun</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>CHC Phoolpur (18 Plus)</v>
+      </c>
+      <c r="B50" t="str">
+        <v>CHC Phoolpur (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C50" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D50" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="F50" t="str">
+        <v>150 Slots</v>
+      </c>
+      <c r="G50" t="str">
+        <v>Sat, 25 Jun</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>CHC Phoolpur (18 Plus)</v>
+      </c>
+      <c r="B51" t="str">
+        <v>CHC Phoolpur (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C51" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D51" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="E51" t="str">
+        <v>#1</v>
+      </c>
+      <c r="F51" t="str">
+        <v>600 Slots</v>
+      </c>
+      <c r="G51" t="str">
+        <v>Sat, 25 Jun</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>CHC Phoolpur (18 Plus)</v>
+      </c>
+      <c r="B52" t="str">
+        <v>CHC Phoolpur (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C52" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D52" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="F52" t="str">
+        <v>150 Slots</v>
+      </c>
+      <c r="G52" t="str">
+        <v>Sat, 25 Jun</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>CHC Phoolpur (18 Plus)</v>
+      </c>
+      <c r="B53" t="str">
+        <v>CHC Phoolpur (18 Plus), Prayagraj, Uttar Pradesh, 211008</v>
+      </c>
+      <c r="C53" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="D53" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="E53" t="str">
+        <v>#2</v>
+      </c>
+      <c r="F53" t="str">
+        <v>2 Slots</v>
+      </c>
+      <c r="G53" t="str">
         <v>Sat, 25 Jun</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G53"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -498,7 +498,7 @@
         <v>#2</v>
       </c>
       <c r="F5" t="str">
-        <v>92 Slots</v>
+        <v>93 Slots</v>
       </c>
       <c r="G5" t="str">
         <v>Sat, 25 Jun</v>
